--- a/gama-project/includes/011remploi.xlsx
+++ b/gama-project/includes/011remploi.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:AV23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV2" activeCellId="0" sqref="AV2:AV23"/>
+      <selection pane="topLeft" activeCell="AV2" activeCellId="0" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
